--- a/spliced/walkingToRunning/2023-03-27_19-47-59/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-59/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1870245410479254</v>
+        <v>0.7064247653999316</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3489369601767703</v>
+        <v>0.3879705256011861</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.247608503714431</v>
+        <v>-1.276251717872426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9024685754388619</v>
+        <v>0.1870245410479254</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4795440864290796</v>
+        <v>0.3489369601767703</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.337974872080807</v>
+        <v>-1.247608503714431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.265645361188711</v>
+        <v>0.9024685754388619</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02650926273485885</v>
+        <v>-0.4795440864290796</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.250969281353929</v>
+        <v>-1.337974872080807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4725451643394365</v>
+        <v>1.265645361188711</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.555859181179007</v>
+        <v>-0.02650926273485885</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5429685403247824</v>
+        <v>-1.250969281353929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.317748054029953</v>
+        <v>0.4725451643394365</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8021948228632727</v>
+        <v>-0.555859181179007</v>
       </c>
       <c r="C6" t="n">
-        <v>1.26330361148426</v>
+        <v>-0.5429685403247824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.050464538148212</v>
+        <v>-1.317748054029953</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.059499434408193</v>
+        <v>-0.8021948228632727</v>
       </c>
       <c r="C7" t="n">
-        <v>3.716064271588008</v>
+        <v>1.26330361148426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.666344698310514</v>
+        <v>-5.050464538148212</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1935651362849571</v>
+        <v>-1.059499434408193</v>
       </c>
       <c r="C8" t="n">
-        <v>3.281336202839321</v>
+        <v>3.716064271588008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.485492074550169</v>
+        <v>-4.666344698310514</v>
       </c>
       <c r="B9" t="n">
-        <v>4.400924332855994</v>
+        <v>0.1935651362849571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7134351861204636</v>
+        <v>3.281336202839321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.02430862581669</v>
+        <v>-1.485492074550169</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.010787639521097</v>
+        <v>4.400924332855994</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7682935598537959</v>
+        <v>0.7134351861204636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.513556744241527</v>
+        <v>6.02430862581669</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.51748779219422</v>
+        <v>-4.010787639521097</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.36804590128399</v>
+        <v>-0.7682935598537959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1737358194923093</v>
+        <v>7.513556744241527</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.388084953811616</v>
+        <v>-5.51748779219422</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.017628220737366</v>
+        <v>-5.36804590128399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-5.916927281975134</v>
+        <v>0.1737358194923093</v>
       </c>
       <c r="B13" t="n">
-        <v>2.897614721114258</v>
+        <v>-1.388084953811616</v>
       </c>
       <c r="C13" t="n">
-        <v>3.572245300118667</v>
+        <v>-5.017628220737366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-6.33979143951154</v>
+        <v>-5.916927281975134</v>
       </c>
       <c r="B14" t="n">
-        <v>4.116823385209558</v>
+        <v>2.897614721114258</v>
       </c>
       <c r="C14" t="n">
-        <v>8.404371445554295</v>
+        <v>3.572245300118667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.320760005621735</v>
+        <v>-6.33979143951154</v>
       </c>
       <c r="B15" t="n">
-        <v>6.510529300283205</v>
+        <v>4.116823385209558</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.850896300398263</v>
+        <v>8.404371445554295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.378399950598675</v>
+        <v>2.320760005621735</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.715870903228135</v>
+        <v>6.510529300283205</v>
       </c>
       <c r="C16" t="n">
-        <v>4.009312114134707</v>
+        <v>-2.850896300398263</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.04013035382111</v>
+        <v>3.378399950598675</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.891193592608883</v>
+        <v>-4.715870903228135</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.017571782097598</v>
+        <v>4.009312114134707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5842141112700977</v>
+        <v>7.04013035382111</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8455637893095418</v>
+        <v>-4.891193592608883</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.365541466601665</v>
+        <v>-4.017571782097598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.682129506532303</v>
+        <v>0.5842141112700977</v>
       </c>
       <c r="B19" t="n">
-        <v>2.482550906650994</v>
+        <v>0.8455637893095418</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6109670527695865</v>
+        <v>-2.365541466601665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.043597400491021</v>
+        <v>-3.682129506532303</v>
       </c>
       <c r="B20" t="n">
-        <v>-7.209260378997344</v>
+        <v>2.482550906650994</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.783989848219226</v>
+        <v>0.6109670527695865</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-4.043597400491021</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-7.209260378997344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.783989848219226</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>2.78724845290788</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-4.405640950662791</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>8.337313574809855</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.552849229822288</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-5.358195619534956</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1442216574237578</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.79510967652812</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.44486069921317</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.148945381193625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.9187659382214614</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2956210344576297</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.151463126168018</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-5.69272972968636</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.907055351334684</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.745034019354134</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1373755151245123</v>
+      </c>
+      <c r="B27" t="n">
+        <v>11.3405332758948</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.450026544822681</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.20526529810765</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-4.696971940510186</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.208450563062909</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8.444541233142751</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.498347297840359</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.655560967885902</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.723370986541445</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8442579066087497</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.731481316125937</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.363093618511545</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.143067340257809</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.45013582887988</v>
       </c>
     </row>
   </sheetData>
